--- a/TestData/JTPS-DEVQA/TracerTypes.xlsx
+++ b/TestData/JTPS-DEVQA/TracerTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="116">
   <si>
     <t>N</t>
   </si>
@@ -235,12 +235,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>wnd_Confirmationdialog</t>
-  </si>
-  <si>
-    <t>btn_No</t>
-  </si>
-  <si>
     <t>elm_ErrorDescriptionrequired</t>
   </si>
   <si>
@@ -250,9 +244,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>btn_Cancel</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -365,6 +356,12 @@
   </si>
   <si>
     <t>pJTPS</t>
+  </si>
+  <si>
+    <t>elm_Changessavedtothedatabase</t>
+  </si>
+  <si>
+    <t>aut</t>
   </si>
 </sst>
 </file>
@@ -946,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X173"/>
+  <dimension ref="A1:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J25" workbookViewId="0">
-      <selection activeCell="O88" sqref="O88"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +957,7 @@
     <col min="12" max="12" width="68.42578125" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="18"/>
     <col min="14" max="14" width="21.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="21.140625" customWidth="1"/>
     <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -968,73 +965,73 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="G1" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="J1" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="W1" s="38" t="s">
         <v>99</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="V1" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="38" t="s">
-        <v>102</v>
       </c>
       <c r="X1" s="40" t="s">
         <v>9</v>
@@ -1048,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
@@ -1098,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
@@ -1118,17 +1115,19 @@
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="M3" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="P3" s="14"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -1164,10 +1163,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="14"/>
@@ -1202,15 +1201,16 @@
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="M5" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="10"/>
@@ -1248,10 +1248,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="14"/>
@@ -1290,13 +1290,12 @@
         <v>49</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="Q7" s="10"/>
@@ -1332,10 +1331,10 @@
       <c r="K8" s="10"/>
       <c r="L8" s="1"/>
       <c r="M8" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O8" s="10" t="s">
         <v>20</v>
@@ -1360,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
@@ -1376,18 +1375,18 @@
         <v>4</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>20</v>
@@ -1430,13 +1429,12 @@
         <v>49</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="17" t="s">
         <v>25</v>
       </c>
       <c r="Q10" s="10"/>
@@ -1472,13 +1470,13 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P11" s="17" t="s">
         <v>27</v>
@@ -1518,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O12" s="18"/>
       <c r="P12" s="15"/>
@@ -1560,10 +1558,10 @@
         <v>30</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>20</v>
@@ -1606,13 +1604,13 @@
         <v>34</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P14" s="14" t="s">
         <v>33</v>
@@ -1652,13 +1650,13 @@
         <v>34</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P15" s="24" t="s">
         <v>36</v>
@@ -1698,13 +1696,13 @@
         <v>34</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P16" s="14" t="s">
         <v>37</v>
@@ -1743,13 +1741,13 @@
         <v>34</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P17" s="34" t="s">
         <v>38</v>
@@ -1791,13 +1789,13 @@
         <v>42</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P18" s="24" t="s">
         <v>38</v>
@@ -1837,13 +1835,13 @@
         <v>34</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>43</v>
@@ -1883,13 +1881,13 @@
         <v>34</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P20" s="14" t="s">
         <v>44</v>
@@ -1929,13 +1927,13 @@
         <v>34</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P21" s="14" t="s">
         <v>45</v>
@@ -1975,13 +1973,13 @@
         <v>47</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P22" s="24" t="s">
         <v>38</v>
@@ -2021,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="15"/>
@@ -2063,13 +2061,13 @@
         <v>48</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P24" s="24" t="s">
         <v>38</v>
@@ -2109,13 +2107,13 @@
         <v>49</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P25" s="35" t="s">
         <v>37</v>
@@ -2155,13 +2153,13 @@
         <v>52</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P26" s="35" t="s">
         <v>51</v>
@@ -2197,10 +2195,10 @@
       <c r="K27" s="10"/>
       <c r="L27" s="25"/>
       <c r="M27" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O27" s="33"/>
       <c r="P27" s="35"/>
@@ -2241,13 +2239,13 @@
         <v>49</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>37</v>
@@ -2287,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>57</v>
@@ -2330,16 +2328,16 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P30" s="14" t="s">
         <v>59</v>
@@ -2379,13 +2377,13 @@
         <v>58</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P31" s="14" t="s">
         <v>61</v>
@@ -2425,13 +2423,13 @@
         <v>49</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P32" s="14" t="s">
         <v>33</v>
@@ -2454,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>2</v>
@@ -2468,20 +2466,18 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="25" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P33" s="14" t="s">
-        <v>59</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="P33" s="14"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
@@ -2500,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>2</v>
@@ -2509,24 +2505,24 @@
         <v>4</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="25" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P34" s="14" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
@@ -2546,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>2</v>
@@ -2557,22 +2553,22 @@
       <c r="I35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="1" t="s">
-        <v>86</v>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" s="15" t="s">
-        <v>23</v>
+        <v>113</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
@@ -2603,16 +2599,16 @@
       <c r="I36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="21" t="s">
-        <v>30</v>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O36" s="10" t="s">
         <v>20</v>
@@ -2637,14 +2633,14 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>2</v>
@@ -2653,24 +2649,24 @@
         <v>4</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="9" t="s">
-        <v>90</v>
+      <c r="L37" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P37" s="14" t="s">
-        <v>51</v>
+        <v>113</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
@@ -2690,7 +2686,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>2</v>
@@ -2699,24 +2695,24 @@
         <v>4</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="25" t="s">
-        <v>49</v>
+      <c r="L38" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P38" s="14" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
@@ -2736,7 +2732,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>2</v>
@@ -2749,20 +2745,20 @@
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="9" t="s">
-        <v>89</v>
+      <c r="L39" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
@@ -2782,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>2</v>
@@ -2795,20 +2791,20 @@
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
-      <c r="L40" s="25" t="s">
-        <v>68</v>
+      <c r="L40" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
@@ -2828,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>2</v>
@@ -2845,16 +2841,16 @@
         <v>68</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
@@ -2874,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>2</v>
@@ -2888,19 +2884,19 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="25" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
@@ -2920,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>2</v>
@@ -2929,24 +2925,24 @@
         <v>4</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="25" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P43" s="14" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
@@ -2966,7 +2962,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>2</v>
@@ -2975,24 +2971,24 @@
         <v>4</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="25" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P44" s="14" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
@@ -3012,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>2</v>
@@ -3025,20 +3021,20 @@
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="9" t="s">
+      <c r="L45" s="25" t="s">
         <v>49</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>73</v>
+        <v>113</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
@@ -3072,13 +3068,13 @@
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
       <c r="L46" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O46" s="10" t="s">
         <v>20</v>
@@ -3121,10 +3117,10 @@
         <v>30</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O47" s="10" t="s">
         <v>20</v>
@@ -3167,13 +3163,13 @@
         <v>49</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P48" s="14" t="s">
         <v>37</v>
@@ -3210,16 +3206,16 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="9" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O49" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P49" s="14" t="s">
         <v>59</v>
@@ -3259,13 +3255,13 @@
         <v>49</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O50" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P50" s="14" t="s">
         <v>33</v>
@@ -3305,16 +3301,16 @@
         <v>34</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
@@ -3351,16 +3347,16 @@
         <v>34</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O52" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q52" s="13"/>
       <c r="R52" s="13"/>
@@ -3397,13 +3393,13 @@
         <v>49</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P53" s="14" t="s">
         <v>27</v>
@@ -3426,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>2</v>
@@ -3439,20 +3435,20 @@
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
-      <c r="L54" s="9" t="s">
-        <v>49</v>
+      <c r="L54" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P54" s="14" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
@@ -3485,14 +3481,14 @@
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
-      <c r="L55" s="1" t="s">
-        <v>86</v>
+      <c r="L55" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O55" s="10" t="s">
         <v>20</v>
@@ -3518,7 +3514,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>2</v>
@@ -3531,20 +3527,20 @@
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
-      <c r="L56" s="21" t="s">
-        <v>30</v>
+      <c r="L56" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56" s="15" t="s">
-        <v>23</v>
+        <v>113</v>
+      </c>
+      <c r="O56" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P56" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
@@ -3564,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>2</v>
@@ -3577,20 +3573,20 @@
       </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
-      <c r="L57" s="9" t="s">
-        <v>77</v>
+      <c r="L57" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P57" s="14" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="Q57" s="13"/>
       <c r="R57" s="13"/>
@@ -3610,7 +3606,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>2</v>
@@ -3619,25 +3615,23 @@
         <v>4</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
-      <c r="L58" s="25" t="s">
-        <v>49</v>
+      <c r="L58" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P58" s="14" t="s">
-        <v>27</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
@@ -3656,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>2</v>
@@ -3665,22 +3659,24 @@
         <v>4</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="9" t="s">
-        <v>72</v>
+      <c r="L59" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O59" s="18"/>
-      <c r="P59" s="10" t="s">
-        <v>73</v>
+        <v>113</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="Q59" s="18"/>
       <c r="R59" s="18"/>
@@ -3700,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>2</v>
@@ -3713,20 +3709,20 @@
       </c>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
-      <c r="L60" s="9" t="s">
-        <v>72</v>
+      <c r="L60" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="P60" s="15" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
@@ -3746,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>2</v>
@@ -3755,22 +3751,24 @@
         <v>4</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O61" s="10"/>
-      <c r="P61" s="13" t="s">
-        <v>87</v>
+        <v>113</v>
+      </c>
+      <c r="O61" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P61" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
@@ -3790,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>2</v>
@@ -3807,16 +3805,16 @@
         <v>49</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O62" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P62" s="14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
@@ -3836,7 +3834,7 @@
         <v>2</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>2</v>
@@ -3845,25 +3843,23 @@
         <v>4</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
-      <c r="L63" s="9" t="s">
-        <v>49</v>
+      <c r="L63" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O63" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P63" s="14" t="s">
-        <v>74</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O63" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="P63" s="14"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
@@ -3891,22 +3887,24 @@
         <v>4</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
-      <c r="L64" s="9" t="s">
-        <v>79</v>
+      <c r="L64" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O64" s="10"/>
-      <c r="P64" s="13" t="s">
-        <v>87</v>
+        <v>113</v>
+      </c>
+      <c r="O64" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P64" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
@@ -3940,13 +3938,13 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O65" s="10" t="s">
         <v>20</v>
@@ -3989,10 +3987,10 @@
         <v>30</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O66" s="10" t="s">
         <v>20</v>
@@ -4018,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>2</v>
@@ -4027,21 +4025,21 @@
         <v>4</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
       <c r="L67" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P67" s="14" t="s">
         <v>57</v>
@@ -4073,24 +4071,24 @@
         <v>4</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
-      <c r="L68" s="25" t="s">
-        <v>49</v>
+      <c r="L68" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P68" s="14" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="Q68" s="13"/>
       <c r="R68" s="13"/>
@@ -4110,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>2</v>
@@ -4127,16 +4125,16 @@
         <v>49</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O69" s="10" t="s">
-        <v>73</v>
+        <v>113</v>
+      </c>
+      <c r="O69" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
@@ -4167,22 +4165,21 @@
       <c r="I70" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J70" s="10"/>
       <c r="K70" s="10"/>
-      <c r="L70" s="1" t="s">
-        <v>86</v>
+      <c r="L70" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O70" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P70" s="15" t="s">
-        <v>23</v>
+        <v>113</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P70" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
@@ -4202,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>2</v>
@@ -4215,20 +4212,20 @@
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
-      <c r="L71" s="21" t="s">
-        <v>30</v>
+      <c r="L71" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O71" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P71" s="15" t="s">
-        <v>23</v>
+        <v>113</v>
+      </c>
+      <c r="O71" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P71" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
@@ -4257,24 +4254,24 @@
         <v>4</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
-      <c r="L72" s="9" t="s">
-        <v>81</v>
+      <c r="L72" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
@@ -4287,316 +4284,89 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D73" s="22"/>
+        <v>81</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E73" s="4" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O73" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P73" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="26"/>
+        <v>81</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P73" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="W73" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="X73" s="10"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="M74" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="N74" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O74" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P74" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="26"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="10"/>
-      <c r="L75" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="M75" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="N75" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O75" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="P75" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="26"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="M76" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="N76" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O76" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P76" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="26"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="M77" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="N77" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O77" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P77" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="25"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="10"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="9"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
-      <c r="O79" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P79" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="W79" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="X79" s="10"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M80" s="10"/>
@@ -4949,30 +4719,6 @@
     <row r="167" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M167" s="10"/>
       <c r="N167" s="10"/>
-    </row>
-    <row r="168" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M168" s="10"/>
-      <c r="N168" s="10"/>
-    </row>
-    <row r="169" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M169" s="10"/>
-      <c r="N169" s="10"/>
-    </row>
-    <row r="170" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M170" s="10"/>
-      <c r="N170" s="10"/>
-    </row>
-    <row r="171" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M171" s="10"/>
-      <c r="N171" s="10"/>
-    </row>
-    <row r="172" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M172" s="10"/>
-      <c r="N172" s="10"/>
-    </row>
-    <row r="173" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M173" s="10"/>
-      <c r="N173" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/JTPS-DEVQA/TracerTypes.xlsx
+++ b/TestData/JTPS-DEVQA/TracerTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="116">
   <si>
     <t>N</t>
   </si>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +954,7 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="68.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="18"/>
     <col min="14" max="14" width="21.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
@@ -1352,15 +1352,9 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -2677,7 +2671,7 @@
       <c r="W37" s="36"/>
       <c r="X37" s="26"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="22"/>

--- a/TestData/JTPS-DEVQA/TracerTypes.xlsx
+++ b/TestData/JTPS-DEVQA/TracerTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="113">
   <si>
     <t>N</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>allrows,value^ZXY</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>Tracer Types</t>
   </si>
 </sst>
 </file>
@@ -978,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,8 +1073,12 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -1113,8 +1123,12 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
         <v>1</v>

--- a/TestData/JTPS-DEVQA/TracerTypes.xlsx
+++ b/TestData/JTPS-DEVQA/TracerTypes.xlsx
@@ -985,7 +985,7 @@
   <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
